--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.74777418604128</v>
+        <v>33.65726433333334</v>
       </c>
       <c r="H2">
-        <v>8.74777418604128</v>
+        <v>100.971793</v>
       </c>
       <c r="I2">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="J2">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.34902813856583</v>
+        <v>0.4310329999999999</v>
       </c>
       <c r="N2">
-        <v>0.34902813856583</v>
+        <v>1.293099</v>
       </c>
       <c r="O2">
-        <v>0.07135034090196284</v>
+        <v>0.08359060417869307</v>
       </c>
       <c r="P2">
-        <v>0.07135034090196284</v>
+        <v>0.08359060417869306</v>
       </c>
       <c r="Q2">
-        <v>3.053219340748206</v>
+        <v>14.50739161738967</v>
       </c>
       <c r="R2">
-        <v>3.053219340748206</v>
+        <v>130.566524556507</v>
       </c>
       <c r="S2">
-        <v>0.03868037681378998</v>
+        <v>0.0678399416696107</v>
       </c>
       <c r="T2">
-        <v>0.03868037681378998</v>
+        <v>0.06783994166961069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.74777418604128</v>
+        <v>33.65726433333334</v>
       </c>
       <c r="H3">
-        <v>8.74777418604128</v>
+        <v>100.971793</v>
       </c>
       <c r="I3">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="J3">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.55837864069676</v>
+        <v>3.734602</v>
       </c>
       <c r="N3">
-        <v>3.55837864069676</v>
+        <v>11.203806</v>
       </c>
       <c r="O3">
-        <v>0.7274242418253926</v>
+        <v>0.7242546105447971</v>
       </c>
       <c r="P3">
-        <v>0.7274242418253926</v>
+        <v>0.7242546105447971</v>
       </c>
       <c r="Q3">
-        <v>31.12789281724778</v>
+        <v>125.6964866937954</v>
       </c>
       <c r="R3">
-        <v>31.12789281724778</v>
+        <v>1131.268380244158</v>
       </c>
       <c r="S3">
-        <v>0.3943505163619705</v>
+        <v>0.5877860438509616</v>
       </c>
       <c r="T3">
-        <v>0.3943505163619705</v>
+        <v>0.5877860438509616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.74777418604128</v>
+        <v>33.65726433333334</v>
       </c>
       <c r="H4">
-        <v>8.74777418604128</v>
+        <v>100.971793</v>
       </c>
       <c r="I4">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="J4">
-        <v>0.5421190189818125</v>
+        <v>0.8115737688004754</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.984344740823396</v>
+        <v>0.9908416666666667</v>
       </c>
       <c r="N4">
-        <v>0.984344740823396</v>
+        <v>2.972525</v>
       </c>
       <c r="O4">
-        <v>0.2012254172726446</v>
+        <v>0.1921547852765099</v>
       </c>
       <c r="P4">
-        <v>0.2012254172726446</v>
+        <v>0.1921547852765099</v>
       </c>
       <c r="Q4">
-        <v>8.610825513940398</v>
+        <v>33.34901988748056</v>
       </c>
       <c r="R4">
-        <v>8.610825513940398</v>
+        <v>300.141178987325</v>
       </c>
       <c r="S4">
-        <v>0.109088125806052</v>
+        <v>0.1559477832799032</v>
       </c>
       <c r="T4">
-        <v>0.109088125806052</v>
+        <v>0.1559477832799032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.566221770718465</v>
+        <v>0.56955</v>
       </c>
       <c r="H5">
-        <v>0.566221770718465</v>
+        <v>1.70865</v>
       </c>
       <c r="I5">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="J5">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.34902813856583</v>
+        <v>0.4310329999999999</v>
       </c>
       <c r="N5">
-        <v>0.34902813856583</v>
+        <v>1.293099</v>
       </c>
       <c r="O5">
-        <v>0.07135034090196284</v>
+        <v>0.08359060417869307</v>
       </c>
       <c r="P5">
-        <v>0.07135034090196284</v>
+        <v>0.08359060417869306</v>
       </c>
       <c r="Q5">
-        <v>0.197627330649314</v>
+        <v>0.24549484515</v>
       </c>
       <c r="R5">
-        <v>0.197627330649314</v>
+        <v>2.209453606349999</v>
       </c>
       <c r="S5">
-        <v>0.002503685050136509</v>
+        <v>0.001147991066512806</v>
       </c>
       <c r="T5">
-        <v>0.002503685050136509</v>
+        <v>0.001147991066512806</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.566221770718465</v>
+        <v>0.56955</v>
       </c>
       <c r="H6">
-        <v>0.566221770718465</v>
+        <v>1.70865</v>
       </c>
       <c r="I6">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="J6">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.55837864069676</v>
+        <v>3.734602</v>
       </c>
       <c r="N6">
-        <v>3.55837864069676</v>
+        <v>11.203806</v>
       </c>
       <c r="O6">
-        <v>0.7274242418253926</v>
+        <v>0.7242546105447971</v>
       </c>
       <c r="P6">
-        <v>0.7274242418253926</v>
+        <v>0.7242546105447971</v>
       </c>
       <c r="Q6">
-        <v>2.014831454822084</v>
+        <v>2.1270425691</v>
       </c>
       <c r="R6">
-        <v>2.014831454822084</v>
+        <v>19.1433831219</v>
       </c>
       <c r="S6">
-        <v>0.02552533283432452</v>
+        <v>0.009946546396635201</v>
       </c>
       <c r="T6">
-        <v>0.02552533283432452</v>
+        <v>0.009946546396635201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.566221770718465</v>
+        <v>0.56955</v>
       </c>
       <c r="H7">
-        <v>0.566221770718465</v>
+        <v>1.70865</v>
       </c>
       <c r="I7">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="J7">
-        <v>0.03509002225478691</v>
+        <v>0.01373349406661455</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.984344740823396</v>
+        <v>0.9908416666666667</v>
       </c>
       <c r="N7">
-        <v>0.984344740823396</v>
+        <v>2.972525</v>
       </c>
       <c r="O7">
-        <v>0.2012254172726446</v>
+        <v>0.1921547852765099</v>
       </c>
       <c r="P7">
-        <v>0.2012254172726446</v>
+        <v>0.1921547852765099</v>
       </c>
       <c r="Q7">
-        <v>0.5573574221464318</v>
+        <v>0.56433387125</v>
       </c>
       <c r="R7">
-        <v>0.5573574221464318</v>
+        <v>5.07900484125</v>
       </c>
       <c r="S7">
-        <v>0.007061004370325881</v>
+        <v>0.002638956603466541</v>
       </c>
       <c r="T7">
-        <v>0.007061004370325881</v>
+        <v>0.002638956603466541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.82226541711904</v>
+        <v>7.244787666666667</v>
       </c>
       <c r="H8">
-        <v>6.82226541711904</v>
+        <v>21.734363</v>
       </c>
       <c r="I8">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="J8">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.34902813856583</v>
+        <v>0.4310329999999999</v>
       </c>
       <c r="N8">
-        <v>0.34902813856583</v>
+        <v>1.293099</v>
       </c>
       <c r="O8">
-        <v>0.07135034090196284</v>
+        <v>0.08359060417869307</v>
       </c>
       <c r="P8">
-        <v>0.07135034090196284</v>
+        <v>0.08359060417869306</v>
       </c>
       <c r="Q8">
-        <v>2.381162599339094</v>
+        <v>3.122742562326333</v>
       </c>
       <c r="R8">
-        <v>2.381162599339094</v>
+        <v>28.104683060937</v>
       </c>
       <c r="S8">
-        <v>0.03016627903803635</v>
+        <v>0.01460267144256956</v>
       </c>
       <c r="T8">
-        <v>0.03016627903803635</v>
+        <v>0.01460267144256956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.82226541711904</v>
+        <v>7.244787666666667</v>
       </c>
       <c r="H9">
-        <v>6.82226541711904</v>
+        <v>21.734363</v>
       </c>
       <c r="I9">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="J9">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.55837864069676</v>
+        <v>3.734602</v>
       </c>
       <c r="N9">
-        <v>3.55837864069676</v>
+        <v>11.203806</v>
       </c>
       <c r="O9">
-        <v>0.7274242418253926</v>
+        <v>0.7242546105447971</v>
       </c>
       <c r="P9">
-        <v>0.7274242418253926</v>
+        <v>0.7242546105447971</v>
       </c>
       <c r="Q9">
-        <v>24.27620354144057</v>
+        <v>27.05639850950867</v>
       </c>
       <c r="R9">
-        <v>24.27620354144057</v>
+        <v>243.507586585578</v>
       </c>
       <c r="S9">
-        <v>0.3075483926290976</v>
+        <v>0.1265220202972004</v>
       </c>
       <c r="T9">
-        <v>0.3075483926290976</v>
+        <v>0.1265220202972004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.82226541711904</v>
+        <v>7.244787666666667</v>
       </c>
       <c r="H10">
-        <v>6.82226541711904</v>
+        <v>21.734363</v>
       </c>
       <c r="I10">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="J10">
-        <v>0.4227909587634007</v>
+        <v>0.1746927371329101</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.984344740823396</v>
+        <v>0.9908416666666667</v>
       </c>
       <c r="N10">
-        <v>0.984344740823396</v>
+        <v>2.972525</v>
       </c>
       <c r="O10">
-        <v>0.2012254172726446</v>
+        <v>0.1921547852765099</v>
       </c>
       <c r="P10">
-        <v>0.2012254172726446</v>
+        <v>0.1921547852765099</v>
       </c>
       <c r="Q10">
-        <v>6.71546108384246</v>
+        <v>7.178437486286112</v>
       </c>
       <c r="R10">
-        <v>6.71546108384246</v>
+        <v>64.60593737657501</v>
       </c>
       <c r="S10">
-        <v>0.08507628709626677</v>
+        <v>0.03356804539314012</v>
       </c>
       <c r="T10">
-        <v>0.08507628709626677</v>
+        <v>0.03356804539314012</v>
       </c>
     </row>
   </sheetData>
